--- a/biology/Microbiologie/Acidithiobacillus_ferridurans/Acidithiobacillus_ferridurans.xlsx
+++ b/biology/Microbiologie/Acidithiobacillus_ferridurans/Acidithiobacillus_ferridurans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acidithiobacillus ferridurans est une espèce de bactérie à Gram négatif du genre Acidithiobacillus de la famille Acidithiobacillaceae et incluse dans les Pseudomonadota. C'est une bactérie capable d'oxyder le fer.
 </t>
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Le genre Acidithiobacillus a été nommé ainsi d'après les caractéristiques qui lui sont propres[2]. L'étymologie de l'espèce Acidithiobacillus ferridurans est la suivante : fer.ri.du’rans L. neut. n. ferrum, fer; L. pres. part. durans, résistant; N.L. part. adj. ferridurans, résistant au fer[1],[3].
-Historique
-Cette espèce décrite en 2013 a permis de classer douze souches de bactéries du genre Acidithiobacillus. Ce sont des bactéries  chimiolithotrophes obligatoires, acidophiles et mésophiles[1]. Comme les autres bactéries du même genre, elle fait partie de la classe des Acidithiobacillia créée en 2013[4].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Acidithiobacillus a été nommé ainsi d'après les caractéristiques qui lui sont propres. L'étymologie de l'espèce Acidithiobacillus ferridurans est la suivante : fer.ri.du’rans L. neut. n. ferrum, fer; L. pres. part. durans, résistant; N.L. part. adj. ferridurans, résistant au fer,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Acidithiobacillus_ferridurans</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acidithiobacillus_ferridurans</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce décrite en 2013 a permis de classer douze souches de bactéries du genre Acidithiobacillus. Ce sont des bactéries  chimiolithotrophes obligatoires, acidophiles et mésophiles. Comme les autres bactéries du même genre, elle fait partie de la classe des Acidithiobacillia créée en 2013.
 </t>
         </is>
       </c>
